--- a/biology/Zoologie/Eleutherodactylus_atkinsi/Eleutherodactylus_atkinsi.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_atkinsi/Eleutherodactylus_atkinsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus atkinsi est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus atkinsi est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre du niveau de la mer jusqu'à 1 212 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre du niveau de la mer jusqu'à 1 212 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 43 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 43 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Schwartz &amp; Henderson, 1991 deux sous-espèces peuvent être reconnues[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Schwartz &amp; Henderson, 1991 deux sous-espèces peuvent être reconnues :
 Eleutherodactylus atkinsi atkinsi  Dunn, 1925
 Eleutherodactylus atkinsi estradai Lynch, 1991</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edwin F. Atkins et la sous-espèce en l'honneur d'Alberto R. Estrada.
 </t>
@@ -636,9 +656,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus atkinsi orientalis[3] étant préoccupé par Eleutherodactylus orientalis le nom de remplacement Eleutherodactylus atkinsi estradai a été proposé par Lynch en 1991.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus atkinsi orientalis étant préoccupé par Eleutherodactylus orientalis le nom de remplacement Eleutherodactylus atkinsi estradai a été proposé par Lynch en 1991.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dunn, 1925 : New frogs from Cuba. Occasional Papers of the Boston Society for Natural History, vol. 5, p. 163-166 (texte intégral).
 Lynch, 1991 : Three replacement names for preoccupied names in the genus Eleutherodactylus (Amphibia: Leptodactylidae). Copeia, vol. 1991, no 4, p. 1138-1139.</t>
